--- a/相关文档/可视化/可视化构思_20180521.xlsx
+++ b/相关文档/可视化/可视化构思_20180521.xlsx
@@ -4,10 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14400" windowHeight="12180" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="数据类型设置问题" sheetId="1" r:id="rId1"/>
+    <sheet name="数据处理流程问题" sheetId="2" r:id="rId2"/>
+    <sheet name="工具栏设计" sheetId="3" r:id="rId3"/>
+    <sheet name="主副视图" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -15,7 +18,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,6 +28,23 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -51,8 +71,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -71,77 +93,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>366433</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>90769</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>556933</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>166970</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="圆角矩形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3784227" y="90769"/>
-          <a:ext cx="1557618" cy="412377"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>通用图片表</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>387723</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>40902</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>117103</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -151,8 +111,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1071282" y="1553696"/>
-          <a:ext cx="1707776" cy="1925172"/>
+          <a:off x="387723" y="1069602"/>
+          <a:ext cx="1714500" cy="1962151"/>
           <a:chOff x="685800" y="2200276"/>
           <a:chExt cx="1714500" cy="1962150"/>
         </a:xfrm>
@@ -374,78 +334,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>71716</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>145116</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>128867</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>53228</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="圆角矩形 49"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1438834" y="145116"/>
-          <a:ext cx="2107827" cy="412377"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>配置文件：通用图片地址前缀</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -455,8 +352,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7585822" y="8062072"/>
-          <a:ext cx="1710018" cy="2511799"/>
+          <a:off x="6924675" y="7705725"/>
+          <a:ext cx="1714500" cy="2562225"/>
           <a:chOff x="8001000" y="4286250"/>
           <a:chExt cx="1714500" cy="2562225"/>
         </a:xfrm>
@@ -716,103 +613,323 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28573</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>336177</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="79" name="组合 78"/>
+        <xdr:cNvPr id="4" name="组合 3"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4870637" y="1373279"/>
-          <a:ext cx="1710017" cy="2477062"/>
-          <a:chOff x="4886325" y="1228723"/>
-          <a:chExt cx="1714500" cy="2524127"/>
+          <a:off x="3541059" y="398929"/>
+          <a:ext cx="2967318" cy="7816103"/>
+          <a:chOff x="4213412" y="963705"/>
+          <a:chExt cx="2958353" cy="7664824"/>
         </a:xfrm>
       </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="矩形 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4213412" y="963705"/>
+            <a:ext cx="2958353" cy="7664824"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="59000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:prstDash val="sysDot"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>缺失</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="35" name="组合 34"/>
+          <xdr:cNvPr id="79" name="组合 78"/>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="4886325" y="1228723"/>
-            <a:ext cx="1714500" cy="2524127"/>
-            <a:chOff x="685800" y="2200274"/>
+            <a:off x="4870637" y="1373279"/>
+            <a:ext cx="1710017" cy="2477062"/>
+            <a:chOff x="4886325" y="1228723"/>
             <a:chExt cx="1714500" cy="2524127"/>
           </a:xfrm>
         </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="35" name="组合 34"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="4886325" y="1228723"/>
+              <a:ext cx="1714500" cy="2524127"/>
+              <a:chOff x="685800" y="2200274"/>
+              <a:chExt cx="1714500" cy="2524127"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="36" name="圆角矩形 35"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="685800" y="2200274"/>
+                <a:ext cx="1714500" cy="2524127"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>实体类型</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="37" name="圆角矩形 36"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="781050" y="2590800"/>
+                <a:ext cx="1524000" cy="371475"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                  <a:t>ID</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="38" name="圆角矩形 37"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="781050" y="3095625"/>
+                <a:ext cx="1524000" cy="371475"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>默认图片</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="39" name="圆角矩形 38"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="781050" y="3629025"/>
+                <a:ext cx="1524000" cy="371475"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>默认</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                  <a:t>背景色</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="36" name="圆角矩形 35"/>
+            <xdr:cNvPr id="76" name="圆角矩形 75"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="685800" y="2200274"/>
-              <a:ext cx="1714500" cy="2524127"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>实体类型</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="37" name="圆角矩形 36"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="781050" y="2590800"/>
+              <a:off x="4972050" y="3171825"/>
               <a:ext cx="1524000" cy="371475"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
@@ -841,21 +958,207 @@
             <a:p>
               <a:pPr algn="ctr"/>
               <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-                <a:t>ID</a:t>
+                <a:rPr lang="en-US" altLang="zh-CN">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>……</a:t>
               </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+                <a:effectLst/>
+              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="78" name="组合 77"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4813487" y="6079751"/>
+            <a:ext cx="1710017" cy="2102785"/>
+            <a:chOff x="4895850" y="5467350"/>
+            <a:chExt cx="1714500" cy="2143126"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="42" name="组合 41"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="4895850" y="5467350"/>
+              <a:ext cx="1714500" cy="2143126"/>
+              <a:chOff x="685800" y="2181225"/>
+              <a:chExt cx="1714500" cy="2143126"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="43" name="圆角矩形 42"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="685800" y="2181225"/>
+                <a:ext cx="1714500" cy="2143126"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>链接类型</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="44" name="圆角矩形 43"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="781050" y="2590800"/>
+                <a:ext cx="1524000" cy="371475"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                  <a:t>ID</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="45" name="圆角矩形 44"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="781050" y="3095625"/>
+                <a:ext cx="1524000" cy="371475"/>
+              </a:xfrm>
+              <a:prstGeom prst="roundRect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr"/>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>默认</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>线颜色</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="38" name="圆角矩形 37"/>
+            <xdr:cNvPr id="77" name="圆角矩形 76"/>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="781050" y="3095625"/>
+              <a:off x="4981575" y="6943725"/>
               <a:ext cx="1524000" cy="371475"/>
             </a:xfrm>
             <a:prstGeom prst="roundRect">
@@ -884,314 +1187,10 @@
             <a:p>
               <a:pPr algn="ctr"/>
               <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>默认图片</a:t>
-              </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="39" name="圆角矩形 38"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="781050" y="3629025"/>
-              <a:ext cx="1524000" cy="371475"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>默认</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-                <a:t>背景色</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="76" name="圆角矩形 75"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4972050" y="3171825"/>
-            <a:ext cx="1524000" cy="371475"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>……</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="78" name="组合 77"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="4813487" y="6079751"/>
-          <a:ext cx="1710017" cy="2102785"/>
-          <a:chOff x="4895850" y="5467350"/>
-          <a:chExt cx="1714500" cy="2143126"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="42" name="组合 41"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="4895850" y="5467350"/>
-            <a:ext cx="1714500" cy="2143126"/>
-            <a:chOff x="685800" y="2181225"/>
-            <a:chExt cx="1714500" cy="2143126"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="43" name="圆角矩形 42"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="685800" y="2181225"/>
-              <a:ext cx="1714500" cy="2143126"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:rPr>
-                <a:t>链接类型</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="44" name="圆角矩形 43"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="781050" y="2590800"/>
-              <a:ext cx="1524000" cy="371475"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-                <a:t>ID</a:t>
-              </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="45" name="圆角矩形 44"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="781050" y="3095625"/>
-              <a:ext cx="1524000" cy="371475"/>
-            </a:xfrm>
-            <a:prstGeom prst="roundRect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>默认</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US">
+                <a:rPr lang="en-US" altLang="zh-CN">
                   <a:effectLst/>
                 </a:rPr>
-                <a:t>线颜色</a:t>
+                <a:t>……</a:t>
               </a:r>
               <a:endParaRPr lang="zh-CN" altLang="zh-CN">
                 <a:effectLst/>
@@ -1200,68 +1199,21 @@
           </xdr:txBody>
         </xdr:sp>
       </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="77" name="圆角矩形 76"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4981575" y="6943725"/>
-            <a:ext cx="1524000" cy="371475"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>……</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN" altLang="zh-CN">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>52107</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>61071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>392766</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>61072</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1270,8 +1222,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7571254" y="3355601"/>
-          <a:ext cx="1707777" cy="3025589"/>
+          <a:off x="6910107" y="2975721"/>
+          <a:ext cx="1712259" cy="3086101"/>
           <a:chOff x="7696200" y="1562100"/>
           <a:chExt cx="1714500" cy="3086100"/>
         </a:xfrm>
@@ -1592,15 +1544,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>327212</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>90768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>670112</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>36979</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1610,8 +1562,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1010771" y="5805768"/>
-          <a:ext cx="1710017" cy="2467535"/>
+          <a:off x="327212" y="5405718"/>
+          <a:ext cx="1714500" cy="2517961"/>
           <a:chOff x="1676400" y="5715000"/>
           <a:chExt cx="1714500" cy="2514599"/>
         </a:xfrm>
@@ -1843,6 +1795,11 @@
           <a:prstGeom prst="roundRect">
             <a:avLst/>
           </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
@@ -1877,115 +1834,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>461684</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>166969</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>633505</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>180727</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>80973</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="85" name="曲线连接符 84"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="38" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3882850" y="1183332"/>
-          <a:ext cx="1762975" cy="402602"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>442072</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>53228</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>180726</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>80974</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="87" name="曲线连接符 86"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="50" idx="2"/>
-          <a:endCxn id="38" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2874879" y="175362"/>
-          <a:ext cx="1708628" cy="2472890"/>
-        </a:xfrm>
-        <a:prstGeom prst="curvedConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>633505</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>89827</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>180726</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>93085</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1998,8 +1855,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2684181" y="1770709"/>
-          <a:ext cx="2281457" cy="675611"/>
+          <a:off x="2684181" y="1871562"/>
+          <a:ext cx="2281457" cy="742847"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -2033,15 +1890,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>575111</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>108417</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>41182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>123576</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>143092</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2054,8 +1911,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2625787" y="6495770"/>
-          <a:ext cx="2282701" cy="202763"/>
+          <a:off x="2625787" y="6596623"/>
+          <a:ext cx="2282701" cy="269998"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -2089,16 +1946,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>656665</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>119342</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>17928</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2107,8 +1964,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12153900" y="3111313"/>
-          <a:ext cx="1707776" cy="2924174"/>
+          <a:off x="11629465" y="2691092"/>
+          <a:ext cx="1714500" cy="2984686"/>
           <a:chOff x="12192000" y="3000375"/>
           <a:chExt cx="1714500" cy="2981324"/>
         </a:xfrm>
@@ -2424,6 +2281,11 @@
           <a:prstGeom prst="roundRect">
             <a:avLst/>
           </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
@@ -2458,16 +2320,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>23251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>138114</xdr:rowOff>
+      <xdr:colOff>67982</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2863</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2479,15 +2341,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6600825" y="2490787"/>
-          <a:ext cx="5686425" cy="1076327"/>
+          <a:off x="6580654" y="2544575"/>
+          <a:ext cx="5791387" cy="1156229"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 75126"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln w="19050" cmpd="thickThin">
+        <a:ln w="19050" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="00B050"/>
           </a:solidFill>
@@ -2514,16 +2376,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>392766</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>156245</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>21774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>628276</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>67982</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>61072</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2535,15 +2397,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9279031" y="4190363"/>
-          <a:ext cx="2969745" cy="678033"/>
+          <a:off x="9279031" y="4223980"/>
+          <a:ext cx="3093010" cy="711651"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 35661"/>
+            <a:gd name="adj1" fmla="val 17756"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln w="19050" cmpd="thickThin">
+        <a:ln w="19050" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="00B050"/>
           </a:solidFill>
@@ -2570,16 +2432,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>157165</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>22000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:colOff>58495</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>4203</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2591,15 +2453,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6543675" y="4614865"/>
-          <a:ext cx="5734050" cy="2486023"/>
+          <a:off x="6523504" y="4728471"/>
+          <a:ext cx="5839050" cy="2335438"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 74917"/>
+            <a:gd name="adj1" fmla="val 61899"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln w="19050" cmpd="thickThin">
+        <a:ln w="19050" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="00B050"/>
           </a:solidFill>
@@ -2626,16 +2488,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>40909</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:colOff>77470</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>73119</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2647,15 +2509,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9324975" y="5148263"/>
-          <a:ext cx="2971800" cy="4181475"/>
+          <a:off x="9295840" y="5251644"/>
+          <a:ext cx="3085689" cy="4066328"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 64103"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln w="19050" cmpd="thickThin">
+        <a:ln w="19050" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="00B050"/>
           </a:solidFill>
@@ -2682,15 +2544,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>575111</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>7517</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>41134</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>628276</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:colOff>67982</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>152897</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2703,15 +2565,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2625787" y="5554429"/>
-          <a:ext cx="9622989" cy="1658174"/>
+          <a:off x="2625787" y="5756134"/>
+          <a:ext cx="9746254" cy="1624557"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 7147"/>
+            <a:gd name="adj1" fmla="val 93460"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln w="19050" cmpd="thickThin">
+        <a:ln w="19050" cmpd="sng">
           <a:solidFill>
             <a:srgbClr val="00B050"/>
           </a:solidFill>
@@ -2738,16 +2600,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>333624</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>89826</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>146984</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>149785</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2759,8 +2621,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6485653" y="1938797"/>
-          <a:ext cx="1180478" cy="2514047"/>
+          <a:off x="6485653" y="1871562"/>
+          <a:ext cx="1180478" cy="2648517"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -2794,16 +2656,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>276474</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>108417</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>41182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>161676</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>82469</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>82468</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2815,8 +2677,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6428503" y="6495770"/>
-          <a:ext cx="1252320" cy="2495375"/>
+          <a:off x="6428503" y="6596623"/>
+          <a:ext cx="1252320" cy="2562610"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
@@ -2850,16 +2712,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>224117</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>56028</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>375023</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>84206</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>173317</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2868,7 +2730,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12528176" y="728381"/>
+          <a:off x="12326470" y="739587"/>
           <a:ext cx="1518023" cy="364354"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2912,16 +2774,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>70117</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>81323</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>224117</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>90486</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>23251</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2933,8 +2795,1361 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6580654" y="910558"/>
-          <a:ext cx="5947522" cy="1701252"/>
+          <a:off x="6580654" y="921764"/>
+          <a:ext cx="5745816" cy="1622811"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50390"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>6722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="矩形 83"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15060706" y="1183340"/>
+          <a:ext cx="5076265" cy="3713631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+            <a:alpha val="59000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>当前后台设计中，没有实体类型和链接类型的概念。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>直接用要素字典类别作为实体类型，战法模型作为链接类型。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>导致要素字典类别与战法模型多重意义，没有业务分离。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>添加布局类型的概念，为战法模型设置默认布局。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>链接类型究竟该怎么设定？ </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>与战法模型一一对应？ </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>与链接两端的实体对象类型有关？ </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>布局类型的存储用什么？ </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>配置文件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>数据库</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/js</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>文件 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>布局类型用组织类实体存储比较好？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="圆角矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2200276" y="914400"/>
+          <a:ext cx="1447800" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>客户数据</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="圆角矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4019551" y="1647825"/>
+          <a:ext cx="1447800" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>标准数据</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆角矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7191376" y="2924175"/>
+          <a:ext cx="1447800" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>模型结果数据</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="圆角矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9839325" y="4410075"/>
+          <a:ext cx="1666875" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>用于可视化的封装数据</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="圆角矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12725401" y="5819775"/>
+          <a:ext cx="1447800" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>前台可视化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="曲线连接符 131"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="36" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1752600" y="647701"/>
+          <a:ext cx="333376" cy="733424"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="流程图: 决策 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="933451"/>
+          <a:ext cx="1143000" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
+            <a:t>规范化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="曲线连接符 131"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="2"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3217069" y="1069181"/>
+          <a:ext cx="442912" cy="1162051"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="流程图: 决策 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5610225" y="2190751"/>
+          <a:ext cx="1057275" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
+            <a:t>分析</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>628652</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="曲线连接符 131"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="47" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5005388" y="1833563"/>
+          <a:ext cx="342901" cy="866774"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="流程图: 决策 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8639175" y="3590926"/>
+          <a:ext cx="1057275" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>组装</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>652462</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="曲线连接符 131"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="47" idx="2"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6434138" y="2390775"/>
+          <a:ext cx="461962" cy="1052513"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="流程图: 决策 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11306175" y="5029201"/>
+          <a:ext cx="1057275" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
+            <a:t>展示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="曲线连接符 131"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="51" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8043862" y="3243263"/>
+          <a:ext cx="466726" cy="723899"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>252414</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="曲线连接符 131"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="2"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9229726" y="4024313"/>
+          <a:ext cx="547687" cy="671512"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>385764</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="曲线连接符 131"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="62" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10779919" y="4750594"/>
+          <a:ext cx="419101" cy="633412"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>176213</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="曲线连接符 131"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="62" idx="2"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="12020551" y="5338763"/>
+          <a:ext cx="519112" cy="890588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="圆角矩形 97"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6553200" y="952500"/>
+          <a:ext cx="1447800" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>战法模型</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>652463</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133352</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="曲线连接符 131"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="98" idx="2"/>
+          <a:endCxn id="47" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6312694" y="1226345"/>
+          <a:ext cx="790576" cy="1138237"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2945,9 +4160,2575 @@
           <a:solidFill>
             <a:srgbClr val="00B050"/>
           </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:prstDash val="sysDot"/>
           <a:tailEnd type="arrow"/>
         </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="矩形 118"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10801350" y="723901"/>
+          <a:ext cx="4972050" cy="2419349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+            <a:alpha val="59000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>模型数据组装为可视化数据的操作，应该整合为通用处理。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>暂时无人管理后台的可视化组装过程。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>存在废弃的属性和类。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>考虑后期纳入到可视化的开发内容里。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>优化封装方式，提升封装速度。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>252414</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="曲线连接符 119"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="119" idx="1"/>
+          <a:endCxn id="51" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="8482014" y="1933576"/>
+          <a:ext cx="2319337" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>93481</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="组合 13"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="695325" y="190500"/>
+          <a:ext cx="12030074" cy="5389381"/>
+          <a:chOff x="695325" y="190500"/>
+          <a:chExt cx="12030074" cy="5389381"/>
+        </a:xfrm>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="11" name="组合 10"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="695325" y="190500"/>
+            <a:ext cx="12030074" cy="5389381"/>
+            <a:chOff x="685800" y="171450"/>
+            <a:chExt cx="12030074" cy="5389381"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="图片 1"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="685800" y="171450"/>
+              <a:ext cx="10058400" cy="5389381"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="圆角矩形标注 8"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11601449" y="5124450"/>
+              <a:ext cx="1114425" cy="409575"/>
+            </a:xfrm>
+            <a:prstGeom prst="wedgeRoundRectCallout">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val -175535"/>
+                <a:gd name="adj2" fmla="val 30769"/>
+                <a:gd name="adj3" fmla="val 16667"/>
+              </a:avLst>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>状态栏</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="圆角矩形标注 11"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11534775" y="3057525"/>
+            <a:ext cx="1114425" cy="409575"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRoundRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -175535"/>
+              <a:gd name="adj2" fmla="val 30769"/>
+              <a:gd name="adj3" fmla="val 16667"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>主视图</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="圆角矩形标注 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11525250" y="409575"/>
+            <a:ext cx="1114425" cy="409575"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRoundRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -175535"/>
+              <a:gd name="adj2" fmla="val 30769"/>
+              <a:gd name="adj3" fmla="val 16667"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>工具栏</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="64" name="组合 63"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="609600" y="6591300"/>
+          <a:ext cx="12306300" cy="4105276"/>
+          <a:chOff x="609600" y="6591300"/>
+          <a:chExt cx="12306300" cy="4105276"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="58" name="组合 57"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="609600" y="6591300"/>
+            <a:ext cx="10658474" cy="4105276"/>
+            <a:chOff x="609600" y="6591300"/>
+            <a:chExt cx="10658474" cy="4105276"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="57" name="组合 56"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="609600" y="6591300"/>
+              <a:ext cx="10658474" cy="4105276"/>
+              <a:chOff x="609600" y="6591300"/>
+              <a:chExt cx="10658474" cy="4105276"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="41" name="组合 40"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="609600" y="6591300"/>
+                <a:ext cx="10658474" cy="3173769"/>
+                <a:chOff x="609600" y="6591300"/>
+                <a:chExt cx="10658474" cy="3173769"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="34" name="组合 33"/>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="609600" y="6591300"/>
+                  <a:ext cx="10134600" cy="3173769"/>
+                  <a:chOff x="609600" y="6591300"/>
+                  <a:chExt cx="10134600" cy="3173769"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:grpSp>
+                <xdr:nvGrpSpPr>
+                  <xdr:cNvPr id="33" name="组合 32"/>
+                  <xdr:cNvGrpSpPr/>
+                </xdr:nvGrpSpPr>
+                <xdr:grpSpPr>
+                  <a:xfrm>
+                    <a:off x="685800" y="6591300"/>
+                    <a:ext cx="10058400" cy="3173769"/>
+                    <a:chOff x="685800" y="6591300"/>
+                    <a:chExt cx="10058400" cy="3173769"/>
+                  </a:xfrm>
+                </xdr:grpSpPr>
+                <xdr:pic>
+                  <xdr:nvPicPr>
+                    <xdr:cNvPr id="22" name="图片 21"/>
+                    <xdr:cNvPicPr>
+                      <a:picLocks noChangeAspect="1"/>
+                    </xdr:cNvPicPr>
+                  </xdr:nvPicPr>
+                  <xdr:blipFill>
+                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+                      <a:extLst>
+                        <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                          <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                        </a:ext>
+                      </a:extLst>
+                    </a:blip>
+                    <a:stretch>
+                      <a:fillRect/>
+                    </a:stretch>
+                  </xdr:blipFill>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="685800" y="8058150"/>
+                      <a:ext cx="10058400" cy="1706919"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="40000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </xdr:spPr>
+                </xdr:pic>
+                <xdr:cxnSp macro="">
+                  <xdr:nvCxnSpPr>
+                    <xdr:cNvPr id="29" name="直接连接符 28"/>
+                    <xdr:cNvCxnSpPr>
+                      <a:stCxn id="30" idx="2"/>
+                      <a:endCxn id="26" idx="0"/>
+                    </xdr:cNvCxnSpPr>
+                  </xdr:nvCxnSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="1676400" y="7181850"/>
+                      <a:ext cx="28575" cy="866775"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="line">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:ln w="19050"/>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="1">
+                      <a:schemeClr val="accent1"/>
+                    </a:lnRef>
+                    <a:fillRef idx="0">
+                      <a:schemeClr val="accent1"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:schemeClr val="accent1"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="tx1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                </xdr:cxnSp>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="30" name="圆角矩形 29"/>
+                    <xdr:cNvSpPr/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="790575" y="6591300"/>
+                      <a:ext cx="1771650" cy="590550"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="roundRect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="20000"/>
+                        <a:lumOff val="80000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="2">
+                      <a:schemeClr val="accent1">
+                        <a:shade val="50000"/>
+                      </a:schemeClr>
+                    </a:lnRef>
+                    <a:fillRef idx="1">
+                      <a:schemeClr val="accent1"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:schemeClr val="accent1"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="lt1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                        <a:lnSpc>
+                          <a:spcPct val="100000"/>
+                        </a:lnSpc>
+                        <a:spcBef>
+                          <a:spcPts val="0"/>
+                        </a:spcBef>
+                        <a:spcAft>
+                          <a:spcPts val="0"/>
+                        </a:spcAft>
+                        <a:buClrTx/>
+                        <a:buSzTx/>
+                        <a:buFontTx/>
+                        <a:buNone/>
+                        <a:tabLst/>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:r>
+                        <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <a:t>点击</a:t>
+                      </a:r>
+                      <a:r>
+                        <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <a:t>选项卡</a:t>
+                      </a:r>
+                      <a:r>
+                        <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <a:t>按钮，</a:t>
+                      </a:r>
+                      <a:r>
+                        <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <a:t>切换工具栏</a:t>
+                      </a:r>
+                      <a:r>
+                        <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <a:t>面板</a:t>
+                      </a:r>
+                      <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                      </a:endParaRPr>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+              </xdr:grpSp>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="26" name="圆角矩形 25"/>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="609600" y="8048625"/>
+                    <a:ext cx="2190750" cy="304800"/>
+                  </a:xfrm>
+                  <a:prstGeom prst="roundRect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:prstDash val="sysDot"/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+            </xdr:grpSp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="35" name="圆角矩形 34"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="10210800" y="8058149"/>
+                  <a:ext cx="342900" cy="276225"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln>
+                  <a:prstDash val="sysDot"/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="37" name="圆角矩形 36"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="9486899" y="6600824"/>
+                  <a:ext cx="1781175" cy="723901"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                    <a:lnSpc>
+                      <a:spcPct val="100000"/>
+                    </a:lnSpc>
+                    <a:spcBef>
+                      <a:spcPts val="0"/>
+                    </a:spcBef>
+                    <a:spcAft>
+                      <a:spcPts val="0"/>
+                    </a:spcAft>
+                    <a:buClrTx/>
+                    <a:buSzTx/>
+                    <a:buFontTx/>
+                    <a:buNone/>
+                    <a:tabLst/>
+                    <a:defRPr/>
+                  </a:pPr>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                    </a:rPr>
+                    <a:t>点击工具栏状态按钮，切换为显示状态、隐藏状态以及悬浮状态</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="38" name="直接连接符 37"/>
+                <xdr:cNvCxnSpPr>
+                  <a:stCxn id="37" idx="2"/>
+                  <a:endCxn id="35" idx="0"/>
+                </xdr:cNvCxnSpPr>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="10377487" y="7324725"/>
+                  <a:ext cx="4763" cy="733424"/>
+                </a:xfrm>
+                <a:prstGeom prst="line">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln w="19050"/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+          </xdr:grpSp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="56" name="组合 55"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="666750" y="8401050"/>
+                <a:ext cx="9896475" cy="2295526"/>
+                <a:chOff x="666750" y="8401050"/>
+                <a:chExt cx="9896475" cy="2295526"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="42" name="圆角矩形 41"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="10325100" y="8401050"/>
+                  <a:ext cx="238125" cy="571500"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln>
+                  <a:prstDash val="sysDot"/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="43" name="圆角矩形 42"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="4772025" y="9972675"/>
+                  <a:ext cx="1781175" cy="723901"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                    <a:lnSpc>
+                      <a:spcPct val="100000"/>
+                    </a:lnSpc>
+                    <a:spcBef>
+                      <a:spcPts val="0"/>
+                    </a:spcBef>
+                    <a:spcAft>
+                      <a:spcPts val="0"/>
+                    </a:spcAft>
+                    <a:buClrTx/>
+                    <a:buSzTx/>
+                    <a:buFontTx/>
+                    <a:buNone/>
+                    <a:tabLst/>
+                    <a:defRPr/>
+                  </a:pPr>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                    </a:rPr>
+                    <a:t>面板上工具过多时，点击滚动按钮，横向滚动工具栏面板</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="51" name="圆角矩形 50"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="666750" y="8401050"/>
+                  <a:ext cx="238125" cy="571500"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln>
+                  <a:prstDash val="sysDot"/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:cxnSp macro="">
+              <xdr:nvCxnSpPr>
+                <xdr:cNvPr id="52" name="直接连接符 51"/>
+                <xdr:cNvCxnSpPr>
+                  <a:stCxn id="51" idx="3"/>
+                  <a:endCxn id="43" idx="0"/>
+                </xdr:cNvCxnSpPr>
+              </xdr:nvCxnSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="904875" y="8686800"/>
+                  <a:ext cx="4757738" cy="1285875"/>
+                </a:xfrm>
+                <a:prstGeom prst="line">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:ln w="19050"/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+            </xdr:cxnSp>
+          </xdr:grpSp>
+        </xdr:grpSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="44" name="直接连接符 43"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="42" idx="1"/>
+              <a:endCxn id="43" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="5662613" y="8686800"/>
+              <a:ext cx="4662487" cy="1285875"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="19050"/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="63" name="圆角矩形标注 62"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11630025" y="8877300"/>
+            <a:ext cx="1285875" cy="409575"/>
+          </a:xfrm>
+          <a:prstGeom prst="wedgeRoundRectCallout">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val -147387"/>
+              <a:gd name="adj2" fmla="val 19141"/>
+              <a:gd name="adj3" fmla="val 16667"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>工具栏显示状态</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>139303</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="73" name="组合 72"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="685800" y="11487150"/>
+          <a:ext cx="12134850" cy="825103"/>
+          <a:chOff x="685800" y="11487150"/>
+          <a:chExt cx="12134850" cy="825103"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="66" name="组合 65"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="685800" y="11487150"/>
+            <a:ext cx="12134850" cy="825103"/>
+            <a:chOff x="685800" y="11487150"/>
+            <a:chExt cx="12134850" cy="825103"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="23" name="图片 22"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="685800" y="11487150"/>
+              <a:ext cx="10058400" cy="825103"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="65" name="圆角矩形标注 64"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11534775" y="11620500"/>
+              <a:ext cx="1285875" cy="409575"/>
+            </a:xfrm>
+            <a:prstGeom prst="wedgeRoundRectCallout">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val -147387"/>
+                <a:gd name="adj2" fmla="val 19141"/>
+                <a:gd name="adj3" fmla="val 16667"/>
+              </a:avLst>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>工具栏隐藏状态</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="70" name="圆角矩形 69"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10258425" y="11487150"/>
+            <a:ext cx="342900" cy="276225"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:prstDash val="sysDot"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>167205</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="72" name="组合 71"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="685800" y="12658725"/>
+          <a:ext cx="12658725" cy="1738830"/>
+          <a:chOff x="685800" y="12658725"/>
+          <a:chExt cx="12658725" cy="1738830"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="68" name="组合 67"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="685800" y="12687300"/>
+            <a:ext cx="12658725" cy="1710255"/>
+            <a:chOff x="685800" y="12687300"/>
+            <a:chExt cx="12658725" cy="1710255"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="24" name="图片 23"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="685800" y="12687300"/>
+              <a:ext cx="10058400" cy="1710255"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="67" name="圆角矩形标注 66"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11544300" y="13020675"/>
+              <a:ext cx="1800225" cy="714375"/>
+            </a:xfrm>
+            <a:prstGeom prst="wedgeRoundRectCallout">
+              <a:avLst>
+                <a:gd name="adj1" fmla="val -147387"/>
+                <a:gd name="adj2" fmla="val 19141"/>
+                <a:gd name="adj3" fmla="val 16667"/>
+              </a:avLst>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>工具栏悬浮状态，点击工具栏以外的区域，则自动切换为隐藏状态</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="71" name="圆角矩形 70"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10277475" y="12658725"/>
+            <a:ext cx="342900" cy="276225"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:prstDash val="sysDot"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>187139</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>78440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="矩形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1367118" y="6970059"/>
+          <a:ext cx="4972050" cy="3193675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+            <a:alpha val="59000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>可视化加载完成后，对小范围数据的分析，没必要对整体重新布局（成本太高）。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>现阶段，对于核心功能之一的路径分析，通过选中节点链接的方式展示，效果并不好。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>通过选项卡方式，切换主副视图。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>考虑主副视图同屏展示，实现主副视图联动。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>节点链接属性改变时，主副视图同步化。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>145675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>328334</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>89644</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="组合 19"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8202707" y="145675"/>
+          <a:ext cx="6480362" cy="5827057"/>
+          <a:chOff x="7922560" y="145675"/>
+          <a:chExt cx="6480362" cy="5827057"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="13" name="组合 12"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7922560" y="145675"/>
+            <a:ext cx="6480362" cy="5827057"/>
+            <a:chOff x="526676" y="6219265"/>
+            <a:chExt cx="6480362" cy="5827057"/>
+          </a:xfrm>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="14" name="图片 13"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="683559" y="6219265"/>
+              <a:ext cx="6323479" cy="5715000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="圆角矩形 14"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="526676" y="11642911"/>
+              <a:ext cx="3126440" cy="403411"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="椭圆 16"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10668000" y="2028264"/>
+            <a:ext cx="907677" cy="874059"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:gradFill flip="none" rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="23000">
+                <a:schemeClr val="accent1">
+                  <a:tint val="66000"/>
+                  <a:satMod val="160000"/>
+                  <a:alpha val="0"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="44000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:tint val="23500"/>
+                  <a:satMod val="160000"/>
+                  <a:alpha val="7000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:path path="shape">
+              <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            </a:path>
+            <a:tileRect/>
+          </a:gradFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="组合 18"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="571501" y="168088"/>
+          <a:ext cx="7461996" cy="5771029"/>
+          <a:chOff x="571501" y="168088"/>
+          <a:chExt cx="7461996" cy="5771029"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="8" name="组合 7"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="571501" y="168088"/>
+            <a:ext cx="7461996" cy="5771029"/>
+            <a:chOff x="571501" y="168088"/>
+            <a:chExt cx="7461996" cy="5771029"/>
+          </a:xfrm>
+          <a:effectLst>
+            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+              <a:prstClr val="black">
+                <a:alpha val="40000"/>
+              </a:prstClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="6" name="图片 5"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+              <a:extLst>
+                <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                  <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="683559" y="168088"/>
+              <a:ext cx="7349938" cy="5715000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="圆角矩形 6"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="571501" y="5535706"/>
+              <a:ext cx="3126440" cy="403411"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="椭圆 17"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5894294" y="1075766"/>
+            <a:ext cx="907677" cy="874059"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:gradFill flip="none" rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="22000">
+                <a:schemeClr val="accent1">
+                  <a:tint val="66000"/>
+                  <a:satMod val="160000"/>
+                  <a:alpha val="0"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="44000">
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:tint val="23500"/>
+                  <a:satMod val="160000"/>
+                  <a:alpha val="7000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:path path="shape">
+              <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            </a:path>
+            <a:tileRect/>
+          </a:gradFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>235323</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>13445</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>145115</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="42" name="组合 41"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7754470" y="6667500"/>
+          <a:ext cx="3879475" cy="3394821"/>
+          <a:chOff x="907677" y="10343030"/>
+          <a:chExt cx="3879475" cy="3394821"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="圆角矩形 20"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="907677" y="11542058"/>
+            <a:ext cx="1447800" cy="447675"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>主视图</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="圆角矩形 21"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3316941" y="10343030"/>
+            <a:ext cx="1447800" cy="447675"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>子关系图</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="圆角矩形 22"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3339352" y="11362765"/>
+            <a:ext cx="1447800" cy="447675"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>时序图</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="圆角矩形 23"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3328147" y="12416119"/>
+            <a:ext cx="1447800" cy="447675"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>表格</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="圆角矩形 24"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3328146" y="13290176"/>
+            <a:ext cx="1447800" cy="447675"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>其他统计图</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>316005</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>167809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>593910</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>22131</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直接连接符 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="3"/>
+          <a:endCxn id="22" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9202270" y="6891338"/>
+          <a:ext cx="961464" cy="1199028"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>316005</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>10926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>616321</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>22131</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直接连接符 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="3"/>
+          <a:endCxn id="23" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9202270" y="7911073"/>
+          <a:ext cx="983875" cy="179293"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>316005</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>22131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>605116</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>55751</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直接连接符 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="3"/>
+          <a:endCxn id="24" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9202270" y="8090366"/>
+          <a:ext cx="972670" cy="874061"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>316005</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>22131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>605115</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>89366</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直接连接符 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="3"/>
+          <a:endCxn id="25" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9202270" y="8090366"/>
+          <a:ext cx="972669" cy="1748118"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -3256,6 +7037,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="V6:V20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="6" spans="22:22" x14ac:dyDescent="0.15">
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="22:22" x14ac:dyDescent="0.15">
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="22:22" x14ac:dyDescent="0.15">
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="22:22" x14ac:dyDescent="0.15">
+      <c r="V9" s="2"/>
+    </row>
+    <row r="10" spans="22:22" x14ac:dyDescent="0.15">
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="22:22" x14ac:dyDescent="0.15">
+      <c r="V11" s="2"/>
+    </row>
+    <row r="12" spans="22:22" x14ac:dyDescent="0.15">
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="22:22" x14ac:dyDescent="0.15">
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="22:22" x14ac:dyDescent="0.15">
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="22:22" x14ac:dyDescent="0.15">
+      <c r="V15" s="2"/>
+    </row>
+    <row r="16" spans="22:22" x14ac:dyDescent="0.15">
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" spans="22:22" x14ac:dyDescent="0.15">
+      <c r="V17" s="1"/>
+    </row>
+    <row r="18" spans="22:22" x14ac:dyDescent="0.15">
+      <c r="V18" s="2"/>
+    </row>
+    <row r="19" spans="22:22" x14ac:dyDescent="0.15">
+      <c r="V19" s="1"/>
+    </row>
+    <row r="20" spans="22:22" x14ac:dyDescent="0.15">
+      <c r="V20" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
@@ -3264,7 +7136,6 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/相关文档/可视化/可视化构思_20180521.xlsx
+++ b/相关文档/可视化/可视化构思_20180521.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14400" windowHeight="12180" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14400" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="数据类型设置问题" sheetId="1" r:id="rId1"/>
     <sheet name="数据处理流程问题" sheetId="2" r:id="rId2"/>
     <sheet name="工具栏设计" sheetId="3" r:id="rId3"/>
     <sheet name="主副视图" sheetId="4" r:id="rId4"/>
+    <sheet name="代码设计架构" sheetId="5" r:id="rId5"/>
+    <sheet name="视图联动" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -6750,6 +6752,2933 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆柱形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5162551" y="1533526"/>
+          <a:ext cx="1362074" cy="1276350"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>可视化数据</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="圆角矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3095626" y="4152901"/>
+          <a:ext cx="1543049" cy="733424"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>数据处理模块</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="圆柱形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600074" y="1381125"/>
+          <a:ext cx="2028826" cy="1638300"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>后台传输过来的可视化数据</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="4"/>
+          <a:endCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2628900" y="2171701"/>
+          <a:ext cx="2533651" cy="28574"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3867151" y="2181225"/>
+          <a:ext cx="19049" cy="1971676"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="圆柱形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6981826" y="3124200"/>
+          <a:ext cx="704850" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>子数据</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="圆柱形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6991350" y="4733925"/>
+          <a:ext cx="704850" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>子数据</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="圆柱形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6991350" y="6286500"/>
+          <a:ext cx="704850" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>子数据</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="棱台 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9610726" y="1533525"/>
+          <a:ext cx="1809750" cy="1133475"/>
+        </a:xfrm>
+        <a:prstGeom prst="bevel">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>主视图</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="棱台 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9744074" y="2266950"/>
+          <a:ext cx="1362075" cy="819149"/>
+        </a:xfrm>
+        <a:prstGeom prst="bevel">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>子视图</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="棱台 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9791700" y="3867150"/>
+          <a:ext cx="1352549" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="bevel">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>子视图</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="棱台 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9801225" y="5381625"/>
+          <a:ext cx="1390650" cy="876299"/>
+        </a:xfrm>
+        <a:prstGeom prst="bevel">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>子视图</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直接箭头连接符 30"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="4"/>
+          <a:endCxn id="27" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6524625" y="1071563"/>
+          <a:ext cx="3086101" cy="71438"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>245268</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直接箭头连接符 33"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="4"/>
+          <a:endCxn id="28" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7686676" y="2652713"/>
+          <a:ext cx="2159792" cy="23812"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直接箭头连接符 36"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="4"/>
+          <a:endCxn id="29" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7696200" y="4262438"/>
+          <a:ext cx="2095500" cy="47625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直接箭头连接符 40"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="4"/>
+          <a:endCxn id="30" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7696200" y="5815013"/>
+          <a:ext cx="2105025" cy="4762"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>357189</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123827</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直接箭头连接符 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="23" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5976939" y="1647825"/>
+          <a:ext cx="871537" cy="1138238"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直接箭头连接符 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="24" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5176838" y="2447926"/>
+          <a:ext cx="2481262" cy="1147762"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>357189</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直接箭头连接符 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="25" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4400551" y="3224213"/>
+          <a:ext cx="4033837" cy="1147762"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直接箭头连接符 60"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="59" idx="1"/>
+          <a:endCxn id="27" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11420476" y="1071563"/>
+          <a:ext cx="2143125" cy="2357437"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直接箭头连接符 63"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="59" idx="1"/>
+          <a:endCxn id="28" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11106149" y="2676525"/>
+          <a:ext cx="2457452" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="直接箭头连接符 66"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="59" idx="1"/>
+          <a:endCxn id="29" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11144249" y="3429000"/>
+          <a:ext cx="2419352" cy="881063"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直接箭头连接符 69"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="59" idx="1"/>
+          <a:endCxn id="30" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11191875" y="3429000"/>
+          <a:ext cx="2371726" cy="2390775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="矩形 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11849101" y="6191250"/>
+          <a:ext cx="3543299" cy="2371725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+            <a:alpha val="59000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>工具栏要同时操作多个视图。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>视图切换时，改变工具栏绑定的视图。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>整体代码拆分。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>框架优化。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>高内聚，低耦合。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="组合 14"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13563601" y="1047750"/>
+          <a:ext cx="2228850" cy="4762500"/>
+          <a:chOff x="13592176" y="1162050"/>
+          <a:chExt cx="2228850" cy="4762500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="60" name="组合 59"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="13592176" y="1162050"/>
+            <a:ext cx="2228850" cy="4762500"/>
+            <a:chOff x="13592176" y="1162050"/>
+            <a:chExt cx="2228850" cy="4762500"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="59" name="圆角矩形 58"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13592176" y="1162050"/>
+              <a:ext cx="2228850" cy="4762500"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="55" name="圆角矩形 54"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14030326" y="1581150"/>
+              <a:ext cx="1314450" cy="523875"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>工具栏工具</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="57" name="圆角矩形 56"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14039851" y="2686050"/>
+              <a:ext cx="1314450" cy="523875"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>放大镜面板</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="58" name="圆角矩形 57"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14039851" y="3810000"/>
+              <a:ext cx="1314450" cy="523875"/>
+            </a:xfrm>
+            <a:prstGeom prst="roundRect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:t>全景视图面板</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="圆角矩形 38"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14049376" y="4962525"/>
+            <a:ext cx="1314450" cy="523875"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>状态栏</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>232878</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12782</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="组合 5"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3038475" y="2419350"/>
+          <a:ext cx="1309203" cy="850982"/>
+          <a:chOff x="746834" y="1176092"/>
+          <a:chExt cx="1309203" cy="850982"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="圆角矩形 6"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="746834" y="1176092"/>
+            <a:ext cx="1309203" cy="850982"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="圆角矩形 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="788376" y="1217634"/>
+            <a:ext cx="1226119" cy="767898"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="60960" tIns="60960" rIns="60960" bIns="60960" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr" defTabSz="711200">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" kern="1200"/>
+              <a:t>GIS</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>642453</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>136607</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="组合 8"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5505450" y="828675"/>
+          <a:ext cx="1309203" cy="850982"/>
+          <a:chOff x="2364823" y="555"/>
+          <a:chExt cx="1309203" cy="850982"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="圆角矩形 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2364823" y="555"/>
+            <a:ext cx="1309203" cy="850982"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="圆角矩形 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2406365" y="42097"/>
+            <a:ext cx="1226119" cy="767898"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="60960" tIns="60960" rIns="60960" bIns="60960" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr" defTabSz="711200">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200"/>
+              <a:t>可视化</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>585303</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>3257</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="组合 11"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8191500" y="2409825"/>
+          <a:ext cx="1309203" cy="850982"/>
+          <a:chOff x="3982811" y="1176092"/>
+          <a:chExt cx="1309203" cy="850982"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="圆角矩形 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3982811" y="1176092"/>
+            <a:ext cx="1309203" cy="850982"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="圆角矩形 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4024353" y="1217634"/>
+            <a:ext cx="1226119" cy="767898"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="60960" tIns="60960" rIns="60960" bIns="60960" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr" defTabSz="711200">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200"/>
+              <a:t>全息档案</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>137628</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>146132</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="组合 14"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4314825" y="4781550"/>
+          <a:ext cx="1309203" cy="850982"/>
+          <a:chOff x="1364851" y="3078151"/>
+          <a:chExt cx="1309203" cy="850982"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="圆角矩形 15"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1364851" y="3078151"/>
+            <a:ext cx="1309203" cy="850982"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="圆角矩形 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1406393" y="3119693"/>
+            <a:ext cx="1226119" cy="767898"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="60960" tIns="60960" rIns="60960" bIns="60960" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr" defTabSz="711200">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200"/>
+              <a:t>统计图</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>585303</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>3257</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="18" name="组合 17"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6819900" y="4810125"/>
+          <a:ext cx="1309203" cy="850982"/>
+          <a:chOff x="3364794" y="3078151"/>
+          <a:chExt cx="1309203" cy="850982"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="圆角矩形 18"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3364794" y="3078151"/>
+            <a:ext cx="1309203" cy="850982"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="圆角矩形 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3406336" y="3119693"/>
+            <a:ext cx="1226119" cy="767898"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="60960" tIns="60960" rIns="60960" bIns="60960" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr" defTabSz="711200">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200"/>
+              <a:t>列表</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>673652</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>136607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>92116</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直接连接符 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6160052" y="1679657"/>
+          <a:ext cx="2031448" cy="1155659"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>616502</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>92116</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接连接符 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="1"/>
+          <a:endCxn id="19" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7474502" y="2835316"/>
+          <a:ext cx="716998" cy="1974809"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>168827</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>616502</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直接连接符 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="0"/>
+          <a:endCxn id="16" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4969427" y="4781550"/>
+          <a:ext cx="2505075" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>232878</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>168827</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直接连接符 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="0"/>
+          <a:endCxn id="7" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4347678" y="2844841"/>
+          <a:ext cx="621749" cy="1936709"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>232878</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>136607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>673652</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101641</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直接连接符 31"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="10" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4347678" y="1679657"/>
+          <a:ext cx="1812374" cy="1165184"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>168827</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>92116</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直接连接符 40"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="0"/>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4969427" y="2835316"/>
+          <a:ext cx="3222073" cy="1946234"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>191336</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>616502</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直接连接符 43"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="19" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4306136" y="2844841"/>
+          <a:ext cx="3168366" cy="1965284"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>191336</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>92116</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101641</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直接连接符 46"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="1"/>
+          <a:endCxn id="8" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4306136" y="2835316"/>
+          <a:ext cx="3885364" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>168827</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>136607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>673652</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直接连接符 51"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="16" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4969427" y="1679657"/>
+          <a:ext cx="1190625" cy="3101893"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>673652</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>136607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>616502</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直接连接符 55"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="19" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6160052" y="1679657"/>
+          <a:ext cx="1314450" cy="3130468"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="矩形 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="1885950"/>
+          <a:ext cx="3457575" cy="1571625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+            <a:alpha val="59000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>每一个模块都要能够快速跳转到其他模块。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>让数据流动起来。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>引导用户形成连贯的思维。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -7039,7 +9968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="V6:V20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -7100,7 +10029,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -7130,7 +10061,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X43" sqref="X43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>

--- a/相关文档/可视化/可视化构思_20180521.xlsx
+++ b/相关文档/可视化/可视化构思_20180521.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14400" windowHeight="12180"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14400" windowHeight="12180" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="数据类型设置问题" sheetId="1" r:id="rId1"/>
@@ -12,10 +12,23 @@
     <sheet name="工具栏设计" sheetId="3" r:id="rId3"/>
     <sheet name="主副视图" sheetId="4" r:id="rId4"/>
     <sheet name="代码设计架构" sheetId="5" r:id="rId5"/>
-    <sheet name="视图联动" sheetId="6" r:id="rId6"/>
+    <sheet name="数据联动" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>方式1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6876,15 +6889,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6893,7 +6906,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="600074" y="1381125"/>
+          <a:off x="609599" y="342900"/>
           <a:ext cx="2028826" cy="1638300"/>
         </a:xfrm>
         <a:prstGeom prst="can">
@@ -6933,7 +6946,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
@@ -6941,7 +6954,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>361951</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6953,8 +6966,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2628900" y="2171701"/>
-          <a:ext cx="2533651" cy="28574"/>
+          <a:off x="2638425" y="1143001"/>
+          <a:ext cx="2524126" cy="19049"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7506,7 +7519,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>245268</xdr:colOff>
+      <xdr:colOff>142874</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -7515,13 +7528,13 @@
         <xdr:cNvPr id="34" name="直接箭头连接符 33"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="23" idx="4"/>
-          <a:endCxn id="28" idx="5"/>
+          <a:endCxn id="28" idx="4"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7686676" y="2652713"/>
-          <a:ext cx="2159792" cy="23812"/>
+          <a:ext cx="2057398" cy="23812"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7826,8 +7839,8 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="38100">
-          <a:prstDash val="sysDot"/>
+        <a:ln w="38100" cmpd="sng">
+          <a:prstDash val="solid"/>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
@@ -8005,14 +8018,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8021,8 +8034,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11849101" y="6191250"/>
-          <a:ext cx="3543299" cy="2371725"/>
+          <a:off x="11849101" y="6772275"/>
+          <a:ext cx="3543299" cy="4981575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8113,7 +8126,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>整体代码拆分。</a:t>
+            <a:t>子视图切换时，显示独有的选项卡工具栏。</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
             <a:solidFill>
@@ -8137,7 +8150,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>框架优化。</a:t>
+            <a:t>或者通过视图的右键菜单去实现</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
             <a:solidFill>
@@ -8161,8 +8174,224 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>高内聚，低耦合。</a:t>
+            <a:t>要不要主副概念？</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>子视图是否还可以继续拓展？</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>功能代码拆分为多个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>js</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>文件，动态加载。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>整体框架优化。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>高内聚，低耦合，方便各模块独自管理。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>既有功能实现产品化，再去想添加新功能。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>外观优美</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>操作便利</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>易懂</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>易找</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8441,6 +8670,750 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="圆角矩形 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="7200900"/>
+          <a:ext cx="1543049" cy="733424"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>放大镜优化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="圆角矩形 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4257675" y="7229475"/>
+          <a:ext cx="1543049" cy="733424"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>全景视图优化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="圆角矩形 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6267450" y="7239000"/>
+          <a:ext cx="1543049" cy="733424"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>布局增多</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="圆角矩形 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="8334375"/>
+          <a:ext cx="1543049" cy="733424"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>工具栏界面优化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="圆角矩形 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4257675" y="8353425"/>
+          <a:ext cx="1543049" cy="733424"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>分组功能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="圆角矩形 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6296025" y="8382000"/>
+          <a:ext cx="1543049" cy="733424"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>数据加载模块优化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="圆角矩形 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="9429750"/>
+          <a:ext cx="1543049" cy="733424"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>时序图优化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="圆角矩形 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4229100" y="9439275"/>
+          <a:ext cx="1543049" cy="733424"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>撤销恢复功能优化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="圆角矩形 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6286500" y="9429750"/>
+          <a:ext cx="1543049" cy="733424"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>动态加载优化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1323975" y="6705600"/>
+          <a:ext cx="7391400" cy="4629150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>针对既有功能进行优化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="圆角矩形 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="10458450"/>
+          <a:ext cx="1543049" cy="733424"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>工具栏绑定方式优化</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="圆角矩形 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="11944350"/>
+          <a:ext cx="1543049" cy="733424"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>数据池？？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8448,16 +9421,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>232878</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>12782</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>242403</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>88982</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -8466,8 +9439,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3038475" y="2419350"/>
-          <a:ext cx="1309203" cy="850982"/>
+          <a:off x="304800" y="2280397"/>
+          <a:ext cx="1304721" cy="834173"/>
           <a:chOff x="746834" y="1176092"/>
           <a:chExt cx="1309203" cy="850982"/>
         </a:xfrm>
@@ -8574,16 +9547,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>642453</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>136607</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>194778</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>41357</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -8592,8 +9565,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5505450" y="828675"/>
-          <a:ext cx="1309203" cy="850982"/>
+          <a:off x="1624293" y="383801"/>
+          <a:ext cx="1304720" cy="834174"/>
           <a:chOff x="2364823" y="555"/>
           <a:chExt cx="1309203" cy="850982"/>
         </a:xfrm>
@@ -8699,16 +9672,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>585303</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>3257</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>70953</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>60407</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -8717,8 +9690,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8191500" y="2409825"/>
-          <a:ext cx="1309203" cy="850982"/>
+          <a:off x="4234703" y="402851"/>
+          <a:ext cx="1304721" cy="834174"/>
           <a:chOff x="3982811" y="1176092"/>
           <a:chExt cx="1309203" cy="850982"/>
         </a:xfrm>
@@ -8824,15 +9797,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>137628</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>146132</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8842,8 +9815,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4314825" y="4781550"/>
-          <a:ext cx="1309203" cy="850982"/>
+          <a:off x="1567143" y="4354606"/>
+          <a:ext cx="1304720" cy="834173"/>
           <a:chOff x="1364851" y="3078151"/>
           <a:chExt cx="1309203" cy="850982"/>
         </a:xfrm>
@@ -8949,16 +9922,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>585303</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>3257</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>32853</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>22307</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -8967,8 +9940,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6819900" y="4810125"/>
-          <a:ext cx="1309203" cy="850982"/>
+          <a:off x="4196603" y="4398869"/>
+          <a:ext cx="1304721" cy="834173"/>
           <a:chOff x="3364794" y="3078151"/>
           <a:chExt cx="1309203" cy="850982"/>
         </a:xfrm>
@@ -9074,29 +10047,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>673652</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>136607</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>92116</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>225977</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>41357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>102152</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>60407</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="22" name="直接连接符 21"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="10" idx="2"/>
-          <a:endCxn id="13" idx="1"/>
+          <a:endCxn id="13" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6160052" y="1679657"/>
-          <a:ext cx="2031448" cy="1155659"/>
+          <a:off x="2283377" y="1584407"/>
+          <a:ext cx="2619375" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9122,64 +10095,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>616502</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>92116</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直接连接符 22"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="13" idx="1"/>
-          <a:endCxn id="19" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7474502" y="2835316"/>
-          <a:ext cx="716998" cy="1974809"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>168827</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>168827</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>616502</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>64052</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9191,8 +10116,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4969427" y="4781550"/>
-          <a:ext cx="2505075" cy="28575"/>
+          <a:off x="2226227" y="4781550"/>
+          <a:ext cx="2638425" cy="47625"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9218,15 +10143,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>232878</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>242403</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>101641</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:rowOff>6391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>168827</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9239,8 +10164,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4347678" y="2844841"/>
-          <a:ext cx="621749" cy="1936709"/>
+          <a:off x="1614003" y="3092491"/>
+          <a:ext cx="612224" cy="1689059"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9266,16 +10191,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>232878</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>136607</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>673652</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>242403</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>41357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>225977</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>101641</xdr:rowOff>
+      <xdr:rowOff>6391</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9287,8 +10212,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4347678" y="1679657"/>
-          <a:ext cx="1812374" cy="1165184"/>
+          <a:off x="1614003" y="1584407"/>
+          <a:ext cx="669374" cy="1508084"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9314,15 +10239,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>168827</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>60407</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>168827</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>92116</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:colOff>102152</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9330,13 +10255,13 @@
         <xdr:cNvPr id="41" name="直接连接符 40"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="16" idx="0"/>
-          <a:endCxn id="13" idx="1"/>
+          <a:endCxn id="13" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4969427" y="2835316"/>
-          <a:ext cx="3222073" cy="1946234"/>
+          <a:off x="2226227" y="1603457"/>
+          <a:ext cx="2676525" cy="3178093"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9362,16 +10287,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>191336</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200861</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>101641</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>616502</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>6391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>64052</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9383,8 +10308,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4306136" y="2844841"/>
-          <a:ext cx="3168366" cy="1965284"/>
+          <a:off x="1572461" y="3092491"/>
+          <a:ext cx="3292191" cy="1736684"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9410,29 +10335,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>191336</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200861</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>60407</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>102152</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>92116</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>101641</xdr:rowOff>
+      <xdr:rowOff>6391</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="47" name="直接连接符 46"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="13" idx="1"/>
+          <a:stCxn id="13" idx="2"/>
           <a:endCxn id="8" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4306136" y="2835316"/>
-          <a:ext cx="3885364" cy="9525"/>
+          <a:off x="1572461" y="1603457"/>
+          <a:ext cx="3330291" cy="1489034"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9458,15 +10383,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>168827</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>136607</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>673652</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>41357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>225977</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9479,8 +10404,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4969427" y="1679657"/>
-          <a:ext cx="1190625" cy="3101893"/>
+          <a:off x="2226227" y="1584407"/>
+          <a:ext cx="57150" cy="3197143"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9506,16 +10431,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>673652</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>136607</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>616502</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>225977</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>41357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>64052</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -9527,8 +10452,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6160052" y="1679657"/>
-          <a:ext cx="1314450" cy="3130468"/>
+          <a:off x="2283377" y="1584407"/>
+          <a:ext cx="2581275" cy="3244768"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -9554,16 +10479,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9573,7 +10498,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10287000" y="1885950"/>
-          <a:ext cx="3457575" cy="1571625"/>
+          <a:ext cx="3476625" cy="1771650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9672,8 +10597,4476 @@
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>引导用户筛选数据，统计数据。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>604353</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>98507</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="28" name="组合 27"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5451662" y="2289922"/>
+          <a:ext cx="1304720" cy="834173"/>
+          <a:chOff x="3982811" y="1176092"/>
+          <a:chExt cx="1309203" cy="850982"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="圆角矩形 29"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3982811" y="1176092"/>
+            <a:ext cx="1309203" cy="850982"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="圆角矩形 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4024353" y="1217634"/>
+            <a:ext cx="1226119" cy="767898"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="60960" tIns="60960" rIns="60960" bIns="60960" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr" defTabSz="711200">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200"/>
+              <a:t>全文检索</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>242403</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>6391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15916</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直接连接符 37"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="30" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1614003" y="3092491"/>
+          <a:ext cx="3853347" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>102152</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>60407</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15916</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直接连接符 34"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="2"/>
+          <a:endCxn id="30" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4902752" y="1603457"/>
+          <a:ext cx="564598" cy="1498559"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>64052</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接连接符 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="1"/>
+          <a:endCxn id="19" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4864652" y="3102016"/>
+          <a:ext cx="602698" cy="1727159"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>225977</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>41357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15916</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直接连接符 41"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="30" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2283377" y="1584407"/>
+          <a:ext cx="3183973" cy="1517609"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>64052</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>60407</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>102152</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直接连接符 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="0"/>
+          <a:endCxn id="13" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4864652" y="1603457"/>
+          <a:ext cx="38100" cy="3225718"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>168827</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直接连接符 47"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="0"/>
+          <a:endCxn id="30" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2226227" y="3102016"/>
+          <a:ext cx="3241123" cy="1679534"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="矩形 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8362950" y="6638924"/>
+          <a:ext cx="4267200" cy="2219326"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+            <a:alpha val="59000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>全局侧边栏，每个页面都有该侧边栏。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>有目的性的功能。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>同一功能的多种实现方式。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>功能的简化版。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>帮助用户快速操作，不在需要临时文本的复制粘贴。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="55" name="组合 54"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="702609" y="5883088"/>
+          <a:ext cx="6883213" cy="4893609"/>
+          <a:chOff x="704850" y="6000750"/>
+          <a:chExt cx="6905625" cy="4991100"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="53" name="矩形 52"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="704850" y="6000750"/>
+            <a:ext cx="6905625" cy="4991100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="54" name="圆角矩形 53"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6467476" y="6858000"/>
+            <a:ext cx="1104900" cy="409575"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>全文检索</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="58" name="圆角矩形 57"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6477000" y="7343775"/>
+            <a:ext cx="1104900" cy="409575"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>模型分析</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="59" name="圆角矩形 58"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6477000" y="7858125"/>
+            <a:ext cx="1104900" cy="409575"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>全息挖掘</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="60" name="圆角矩形 59"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6477000" y="9372600"/>
+            <a:ext cx="1104900" cy="409575"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>统计图</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="62" name="圆角矩形 61"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6477000" y="8362950"/>
+            <a:ext cx="1104900" cy="409575"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>时序图</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="63" name="圆角矩形 62"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6477000" y="8867775"/>
+            <a:ext cx="1104900" cy="409575"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>GIS</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>地图</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="圆角矩形 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6486525" y="9858375"/>
+          <a:ext cx="1104900" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>便签</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>183776</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>10086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>345702</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>159124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="矩形 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8386482" y="8918762"/>
+          <a:ext cx="4946838" cy="2166097"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+            <a:alpha val="59000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>活用便签的保存功能，不仅仅限于简单数据的保存。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>用户在某个案件分析数据时，会对关键数据反复分析。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>有目的性的操作。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>保存快捷操作记录，之后一键操作。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>保存的内容：目标数据</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>参数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>操作。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>183776</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>84605</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直接箭头连接符 67"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="64" idx="3"/>
+          <a:endCxn id="65" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7566772" y="9868180"/>
+          <a:ext cx="819710" cy="133631"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>299553</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>155657</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="81" name="组合 80"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5830421" y="11423837"/>
+          <a:ext cx="1304720" cy="834173"/>
+          <a:chOff x="3982811" y="1176092"/>
+          <a:chExt cx="1309203" cy="850982"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="82" name="圆角矩形 81"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3982811" y="1176092"/>
+            <a:ext cx="1309203" cy="850982"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="83" name="圆角矩形 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4024353" y="1217634"/>
+            <a:ext cx="1226119" cy="767898"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="60960" tIns="60960" rIns="60960" bIns="60960" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr" defTabSz="711200">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200"/>
+              <a:t>全息档案</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="圆角矩形 83"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7448550" y="12792075"/>
+          <a:ext cx="1019175" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:uFill>
+            </a:rPr>
+            <a:t>基本属性</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>293594</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>62194</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>655544</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="圆角矩形 84"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4394947" y="12500723"/>
+          <a:ext cx="1045509" cy="307600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:uFill>
+            </a:rPr>
+            <a:t>简单</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:uFill>
+            </a:rPr>
+            <a:t>统计</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>185459</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>18490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="矩形 85"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11805959" y="14305990"/>
+          <a:ext cx="3590923" cy="1393451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+            <a:alpha val="59000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>增加更多的超链接跳转</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>+ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>按钮跳转。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>尽量不要让用户往回走。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>通过代码取数据，而不是让客户复制粘贴。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>79562</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>52108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>17165</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>45840</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="91" name="组合 90"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1446680" y="13499167"/>
+          <a:ext cx="1304720" cy="834173"/>
+          <a:chOff x="3982811" y="1176092"/>
+          <a:chExt cx="1309203" cy="850982"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="92" name="圆角矩形 91"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3982811" y="1176092"/>
+            <a:ext cx="1309203" cy="850982"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="93" name="圆角矩形 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4024353" y="1217634"/>
+            <a:ext cx="1226119" cy="767898"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="60960" tIns="60960" rIns="60960" bIns="60960" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr" defTabSz="711200">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200"/>
+              <a:t>列表</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>344019</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>74519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>281623</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>68251</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="103" name="组合 102"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9913843" y="13689666"/>
+          <a:ext cx="1304721" cy="834173"/>
+          <a:chOff x="3982811" y="1176092"/>
+          <a:chExt cx="1309203" cy="850982"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="104" name="圆角矩形 103"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3982811" y="1176092"/>
+            <a:ext cx="1309203" cy="850982"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="105" name="圆角矩形 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4024353" y="1217634"/>
+            <a:ext cx="1226119" cy="767898"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="60960" tIns="60960" rIns="60960" bIns="60960" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr" defTabSz="711200">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200"/>
+              <a:t>全文检索</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>330752</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>155657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>414338</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="直接箭头连接符 110"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="82" idx="2"/>
+          <a:endCxn id="84" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6502952" y="12500057"/>
+          <a:ext cx="1455186" cy="292018"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>132790</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>155657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>330752</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>62194</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="直接箭头连接符 113"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="85" idx="0"/>
+          <a:endCxn id="82" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4917702" y="12258010"/>
+          <a:ext cx="1565079" cy="242713"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>414338</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>385419</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>155428</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="直接箭头连接符 121"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="84" idx="2"/>
+          <a:endCxn id="105" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7933485" y="12869956"/>
+          <a:ext cx="2021758" cy="1236796"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>48364</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>132790</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>52108</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="125" name="直接箭头连接符 124"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="85" idx="2"/>
+          <a:endCxn id="92" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2099040" y="12808323"/>
+          <a:ext cx="2818662" cy="690844"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>246530</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>127748</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>608480</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>99172</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="圆角矩形 127"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3664324" y="13574807"/>
+          <a:ext cx="1045509" cy="307600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:uFill>
+            </a:rPr>
+            <a:t>基本属性</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>540683</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>73398</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>48184</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="圆角矩形 128"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3958477" y="14865163"/>
+          <a:ext cx="1045509" cy="310962"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:uFill>
+            </a:rPr>
+            <a:t>统计数据</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>340097</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>18488</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>3361</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="圆角矩形 129"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3757891" y="14147986"/>
+          <a:ext cx="1045509" cy="310963"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:uFill>
+            </a:rPr>
+            <a:t>通联关系</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>17165</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>113460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>246530</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>133019</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="131" name="直接箭头连接符 130"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="92" idx="3"/>
+          <a:endCxn id="128" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2751400" y="13728607"/>
+          <a:ext cx="912924" cy="187647"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>17165</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>133019</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>540683</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>60791</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="140" name="直接箭头连接符 139"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="129" idx="1"/>
+          <a:endCxn id="92" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2751400" y="13916254"/>
+          <a:ext cx="1207077" cy="1104390"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>17165</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>133019</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>340097</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>15968</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="145" name="直接箭头连接符 144"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="130" idx="1"/>
+          <a:endCxn id="92" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2751400" y="13916254"/>
+          <a:ext cx="1006491" cy="387214"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>608480</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>113460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>344019</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>155429</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="149" name="直接箭头连接符 148"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="128" idx="3"/>
+          <a:endCxn id="104" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4709833" y="13728607"/>
+          <a:ext cx="5204010" cy="378146"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>531160</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>468762</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>97948</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="159" name="组合 158"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3948954" y="19431001"/>
+          <a:ext cx="1304720" cy="837535"/>
+          <a:chOff x="746834" y="1176092"/>
+          <a:chExt cx="1309203" cy="850982"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="160" name="圆角矩形 159"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="746834" y="1176092"/>
+            <a:ext cx="1309203" cy="850982"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="161" name="圆角矩形 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="788376" y="1217634"/>
+            <a:ext cx="1226119" cy="767898"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="60960" tIns="60960" rIns="60960" bIns="60960" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr" defTabSz="711200">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600" kern="1200"/>
+              <a:t>GIS</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>305360</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>163046</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>242963</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>156778</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="162" name="组合 161"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7140948" y="19157017"/>
+          <a:ext cx="1304721" cy="834173"/>
+          <a:chOff x="2364823" y="555"/>
+          <a:chExt cx="1309203" cy="850982"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="163" name="圆角矩形 162"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2364823" y="555"/>
+            <a:ext cx="1309203" cy="850982"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="164" name="圆角矩形 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2406365" y="42097"/>
+            <a:ext cx="1226119" cy="767898"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="60960" tIns="60960" rIns="60960" bIns="60960" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr" defTabSz="711200">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200"/>
+              <a:t>可视化</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>520513</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>121584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>458116</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>115317</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="165" name="组合 164"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1204072" y="16762319"/>
+          <a:ext cx="1304720" cy="834174"/>
+          <a:chOff x="1364851" y="3078151"/>
+          <a:chExt cx="1309203" cy="850982"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="166" name="圆角矩形 165"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1364851" y="3078151"/>
+            <a:ext cx="1309203" cy="850982"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="167" name="圆角矩形 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1406393" y="3119693"/>
+            <a:ext cx="1226119" cy="767898"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="60960" tIns="60960" rIns="60960" bIns="60960" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr" defTabSz="711200">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200"/>
+              <a:t>统计图</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>18488</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>15968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>486894</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>93797</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="168" name="直接箭头连接符 167"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="130" idx="3"/>
+          <a:endCxn id="171" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4803400" y="14303468"/>
+          <a:ext cx="5253318" cy="2262976"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>486894</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>424498</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>8299</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="170" name="组合 169"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10056718" y="16147676"/>
+          <a:ext cx="1304721" cy="837535"/>
+          <a:chOff x="2364823" y="555"/>
+          <a:chExt cx="1309203" cy="850982"/>
+        </a:xfrm>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="171" name="圆角矩形 170"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2364823" y="555"/>
+            <a:ext cx="1309203" cy="850982"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="172" name="圆角矩形 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2406365" y="42097"/>
+            <a:ext cx="1226119" cy="767898"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:grpFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="60960" tIns="60960" rIns="60960" bIns="60960" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0" algn="ctr" defTabSz="711200">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600" kern="1200"/>
+              <a:t>时序图</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>29696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>1120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="175" name="圆角矩形 174"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3529853" y="17006608"/>
+          <a:ext cx="1340784" cy="307600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:uFill>
+            </a:rPr>
+            <a:t>子统计数据</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>458116</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>15408</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>34406</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="179" name="直接箭头连接符 178"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="175" idx="1"/>
+          <a:endCxn id="166" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2508792" y="17160408"/>
+          <a:ext cx="1021061" cy="18998"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>239806</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>12326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>599514</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>151839</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="184" name="圆角矩形 183"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4341159" y="18670120"/>
+          <a:ext cx="1043267" cy="307601"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:uFill>
+            </a:rPr>
+            <a:t>点详情</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>13447</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>32417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>373155</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>3842</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="185" name="圆角矩形 184"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6849035" y="18522123"/>
+          <a:ext cx="1043267" cy="307601"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:uFill>
+            </a:rPr>
+            <a:t>点详情</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>499961</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>151839</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>77881</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>141740</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="186" name="直接箭头连接符 185"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="161" idx="0"/>
+          <a:endCxn id="184" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4601314" y="18977721"/>
+          <a:ext cx="261479" cy="494166"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>535081</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>3842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>274162</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>163046</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="189" name="直接箭头连接符 188"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="163" idx="0"/>
+          <a:endCxn id="185" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7370669" y="18829724"/>
+          <a:ext cx="422640" cy="327293"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>411256</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>43142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>89646</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="192" name="圆角矩形 191"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8613962" y="18532848"/>
+          <a:ext cx="1045508" cy="310963"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:uFill>
+            </a:rPr>
+            <a:t>线详情</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>274162</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>250451</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>163046</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="194" name="直接箭头连接符 193"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="163" idx="0"/>
+          <a:endCxn id="192" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7793309" y="18843811"/>
+          <a:ext cx="1343407" cy="313206"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>328893</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>55470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7284</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="263" name="圆角矩形 262"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7848040" y="16696205"/>
+          <a:ext cx="1045509" cy="307601"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:uFill>
+            </a:rPr>
+            <a:t>点详情</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7284</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>93797</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>486894</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>41182</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="264" name="直接箭头连接符 263"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="171" idx="1"/>
+          <a:endCxn id="263" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8893549" y="16566444"/>
+          <a:ext cx="1163169" cy="283562"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>489314</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>48184</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>379879</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>121584</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="274" name="直接箭头连接符 273"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="129" idx="2"/>
+          <a:endCxn id="166" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1856432" y="15176125"/>
+          <a:ext cx="2624800" cy="1586194"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>48364</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>45840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>98892</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>29696</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="277" name="直接箭头连接符 276"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="175" idx="0"/>
+          <a:endCxn id="92" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2099040" y="14333340"/>
+          <a:ext cx="2101205" cy="2673268"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>139513</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="286" name="圆角矩形 285"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8202706" y="14455588"/>
+          <a:ext cx="1045509" cy="307601"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:uFill>
+            </a:rPr>
+            <a:t>检索结果</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>155428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>385419</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>153801</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="287" name="直接箭头连接符 286"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="105" idx="1"/>
+          <a:endCxn id="286" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9248215" y="14106752"/>
+          <a:ext cx="707028" cy="502637"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>330752</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>155657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>522755</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="296" name="直接箭头连接符 295"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="286" idx="0"/>
+          <a:endCxn id="82" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6482781" y="12258010"/>
+          <a:ext cx="2242680" cy="2197578"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>330752</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>155657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>168089</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>55470</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="299" name="直接箭头连接符 298"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="263" idx="0"/>
+          <a:endCxn id="82" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6482781" y="12258010"/>
+          <a:ext cx="1888014" cy="4438195"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>77881</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>155657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>330752</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>12326</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="302" name="直接箭头连接符 301"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="184" idx="0"/>
+          <a:endCxn id="82" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4862793" y="12258010"/>
+          <a:ext cx="1619988" cy="6412110"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>330752</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>155657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>535081</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>32417</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="305" name="直接箭头连接符 304"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="185" idx="0"/>
+          <a:endCxn id="82" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6482781" y="12258010"/>
+          <a:ext cx="887888" cy="6264113"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>48364</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>45840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>250451</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>43142</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="310" name="直接箭头连接符 309"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="192" idx="0"/>
+          <a:endCxn id="92" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2099040" y="14333340"/>
+          <a:ext cx="7037676" cy="4199508"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>136152</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="327" name="圆角矩形 326"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9693089" y="12248029"/>
+          <a:ext cx="1272427" cy="326652"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" u="sng" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:uFill>
+            </a:rPr>
+            <a:t>关联实体信息</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>330752</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>155657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>140914</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="328" name="直接箭头连接符 327"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="82" idx="2"/>
+          <a:endCxn id="327" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6482781" y="12258010"/>
+          <a:ext cx="3210308" cy="153345"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>299553</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>74748</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>75921</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="333" name="直接箭头连接符 332"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="327" idx="0"/>
+          <a:endCxn id="82" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7135141" y="11840924"/>
+          <a:ext cx="3194162" cy="407105"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>250451</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>93797</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>486894</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>43142</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="直接箭头连接符 105"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="192" idx="0"/>
+          <a:endCxn id="171" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9136716" y="16566444"/>
+          <a:ext cx="920002" cy="1966404"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9968,7 +15361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="V6:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -10029,9 +15422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -10046,7 +15437,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10061,8 +15452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X43" sqref="X43"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10075,12 +15466,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E41" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10090,14 +15485,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A35:A70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>